--- a/student_scores.xlsx
+++ b/student_scores.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
